--- a/data_exports/enrollments_raw_1962040.xlsx
+++ b/data_exports/enrollments_raw_1962040.xlsx
@@ -1689,7 +1689,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2025-07-11T01:49:43Z</t>
+          <t>2025-07-11T19:06:19Z</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -2174,16 +2174,16 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2025-07-11T18:56:41Z</t>
+          <t>2025-07-11T19:17:19Z</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>10531</v>
+        <v>11765</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/4596715', 'current_grade': None, 'current_score': 79.38, 'final_grade': None, 'final_score': 57.53, 'unposted_current_score': 79.38, 'unposted_current_grade': None, 'unposted_final_score': 57.53, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/4596715', 'current_grade': None, 'current_score': 80.53, 'final_grade': None, 'final_score': 58.45, 'unposted_current_score': 80.53, 'unposted_current_grade': None, 'unposted_final_score': 58.45, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2025-07-11T19:02:02Z</t>
+          <t>2025-07-11T19:20:42Z</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr"/>

--- a/data_exports/enrollments_raw_1962040.xlsx
+++ b/data_exports/enrollments_raw_1962040.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,16 +622,16 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-07-11T02:06:48Z</t>
+          <t>2025-07-18T08:10:51Z</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>7667</v>
+        <v>8441</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5303487', 'current_grade': None, 'current_score': 80.57, 'final_grade': None, 'final_score': 59.98, 'unposted_current_score': 80.57, 'unposted_current_grade': None, 'unposted_final_score': 59.98, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5303487', 'current_grade': None, 'current_score': 86.15, 'final_grade': None, 'final_score': 73.05, 'unposted_current_score': 86.15, 'unposted_current_grade': None, 'unposted_final_score': 73.05, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -719,16 +719,16 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-07-11T00:55:22Z</t>
+          <t>2025-07-17T15:19:05Z</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>19327</v>
+        <v>24153</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5029701', 'current_grade': None, 'current_score': 98.3, 'final_grade': None, 'final_score': 71.9, 'unposted_current_score': 98.3, 'unposted_current_grade': None, 'unposted_final_score': 71.9, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5029701', 'current_grade': None, 'current_score': 98.77, 'final_grade': None, 'final_score': 88.9, 'unposted_current_score': 98.77, 'unposted_current_grade': None, 'unposted_final_score': 88.9, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -816,16 +816,16 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-07-10T03:58:46Z</t>
+          <t>2025-07-21T00:34:17Z</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>17234</v>
+        <v>23313</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5211091', 'current_grade': None, 'current_score': 99.22, 'final_grade': None, 'final_score': 72.42, 'unposted_current_score': 99.22, 'unposted_current_grade': None, 'unposted_final_score': 72.42, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5211091', 'current_grade': None, 'current_score': 99.36, 'final_grade': None, 'final_score': 89.42, 'unposted_current_score': 99.36, 'unposted_current_grade': None, 'unposted_final_score': 89.42, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -913,16 +913,16 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-07-11T18:38:43Z</t>
+          <t>2025-07-21T01:12:44Z</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>11317</v>
+        <v>12513</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5252563', 'current_grade': None, 'current_score': 98.05, 'final_grade': None, 'final_score': 71.77, 'unposted_current_score': 98.05, 'unposted_current_grade': None, 'unposted_final_score': 71.77, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5252563', 'current_grade': None, 'current_score': 98.27, 'final_grade': None, 'final_score': 81.77, 'unposted_current_score': 98.27, 'unposted_current_grade': None, 'unposted_final_score': 81.77, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1010,16 +1010,16 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-07-11T17:02:05Z</t>
+          <t>2025-07-20T01:53:47Z</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>15111</v>
+        <v>21940</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5243067', 'current_grade': None, 'current_score': 87.66, 'final_grade': None, 'final_score': 65.51, 'unposted_current_score': 87.66, 'unposted_current_grade': None, 'unposted_final_score': 65.51, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5243067', 'current_grade': None, 'current_score': 96.81, 'final_grade': None, 'final_score': 87.13, 'unposted_current_score': 96.81, 'unposted_current_grade': None, 'unposted_final_score': 87.13, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1107,16 +1107,16 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2025-07-10T21:04:24Z</t>
+          <t>2025-07-15T21:05:26Z</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>4424</v>
+        <v>4724</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5274461', 'current_grade': None, 'current_score': 29.42, 'final_grade': None, 'final_score': 21.72, 'unposted_current_score': 29.42, 'unposted_current_grade': None, 'unposted_final_score': 21.72, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5274461', 'current_grade': None, 'current_score': 32.82, 'final_grade': None, 'final_score': 27.72, 'unposted_current_score': 32.82, 'unposted_current_grade': None, 'unposted_final_score': 27.72, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1204,16 +1204,16 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2025-07-11T01:59:19Z</t>
+          <t>2025-07-20T13:56:14Z</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>30191</v>
+        <v>31390</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5046387', 'current_grade': None, 'current_score': 95.04, 'final_grade': None, 'final_score': 76.03, 'unposted_current_score': 95.04, 'unposted_current_grade': None, 'unposted_final_score': 76.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5046387', 'current_grade': None, 'current_score': 95.59, 'final_grade': None, 'final_score': 86.03, 'unposted_current_score': 95.59, 'unposted_current_grade': None, 'unposted_final_score': 86.03, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1301,16 +1301,16 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2025-07-11T03:58:19Z</t>
+          <t>2025-07-21T00:31:41Z</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>34589</v>
+        <v>49690</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5018111', 'current_grade': None, 'current_score': 92.51, 'final_grade': None, 'final_score': 68.13, 'unposted_current_score': 92.51, 'unposted_current_grade': None, 'unposted_final_score': 68.13, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5018111', 'current_grade': None, 'current_score': 94.59, 'final_grade': None, 'final_score': 85.13, 'unposted_current_score': 94.59, 'unposted_current_grade': None, 'unposted_final_score': 85.13, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1398,16 +1398,16 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2025-07-10T01:29:17Z</t>
+          <t>2025-07-19T15:43:54Z</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20405</v>
+        <v>25964</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5341511', 'current_grade': None, 'current_score': 99.72, 'final_grade': None, 'final_score': 79.78, 'unposted_current_score': 99.72, 'unposted_current_grade': None, 'unposted_final_score': 79.78, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5341511', 'current_grade': None, 'current_score': 99.75, 'final_grade': None, 'final_score': 89.78, 'unposted_current_score': 99.75, 'unposted_current_grade': None, 'unposted_final_score': 89.78, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1495,16 +1495,16 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2025-07-02T21:10:48Z</t>
+          <t>2025-07-18T19:27:30Z</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>23447</v>
+        <v>23578</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5254955', 'current_grade': None, 'current_score': 60.03, 'final_grade': None, 'final_score': 48.03, 'unposted_current_score': 60.03, 'unposted_current_grade': None, 'unposted_final_score': 48.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5254955', 'current_grade': None, 'current_score': 66.7, 'final_grade': None, 'final_score': 60.03, 'unposted_current_score': 66.7, 'unposted_current_grade': None, 'unposted_final_score': 60.03, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1592,16 +1592,16 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2025-07-11T15:03:08Z</t>
+          <t>2025-07-21T14:04:14Z</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>38726</v>
+        <v>41358</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5078245', 'current_grade': None, 'current_score': 95.43, 'final_grade': None, 'final_score': 69.51, 'unposted_current_score': 95.43, 'unposted_current_grade': None, 'unposted_final_score': 69.51, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5078245', 'current_grade': None, 'current_score': 95.94, 'final_grade': None, 'final_score': 79.51, 'unposted_current_score': 95.94, 'unposted_current_grade': None, 'unposted_final_score': 79.51, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1689,16 +1689,16 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2025-07-11T19:06:19Z</t>
+          <t>2025-07-21T08:37:59Z</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>35061</v>
+        <v>40803</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5226673', 'current_grade': None, 'current_score': 79.0, 'final_grade': None, 'final_score': 56.36, 'unposted_current_score': 79.0, 'unposted_current_grade': None, 'unposted_final_score': 56.36, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5226673', 'current_grade': None, 'current_score': 81.33, 'final_grade': None, 'final_score': 66.36, 'unposted_current_score': 81.33, 'unposted_current_grade': None, 'unposted_final_score': 66.36, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1786,16 +1786,16 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2025-07-11T03:56:33Z</t>
+          <t>2025-07-20T17:32:25Z</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>37765</v>
+        <v>46093</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5285177', 'current_grade': None, 'current_score': 99.75, 'final_grade': None, 'final_score': 72.84, 'unposted_current_score': 99.75, 'unposted_current_grade': None, 'unposted_final_score': 72.84, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5285177', 'current_grade': None, 'current_score': 99.77, 'final_grade': None, 'final_score': 82.84, 'unposted_current_score': 99.77, 'unposted_current_grade': None, 'unposted_final_score': 82.84, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1883,16 +1883,16 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2025-07-11T05:50:35Z</t>
+          <t>2025-07-21T03:34:32Z</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>20342</v>
+        <v>22114</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5324167', 'current_grade': None, 'current_score': 99.33, 'final_grade': None, 'final_score': 72.51, 'unposted_current_score': 99.33, 'unposted_current_grade': None, 'unposted_final_score': 72.51, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5324167', 'current_grade': None, 'current_score': 99.46, 'final_grade': None, 'final_score': 89.51, 'unposted_current_score': 99.46, 'unposted_current_grade': None, 'unposted_final_score': 89.51, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1980,16 +1980,16 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2025-07-11T03:18:59Z</t>
+          <t>2025-07-20T21:32:41Z</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>10972</v>
+        <v>15392</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5266413', 'current_grade': None, 'current_score': 99.31, 'final_grade': None, 'final_score': 72.49, 'unposted_current_score': 99.31, 'unposted_current_grade': None, 'unposted_final_score': 72.49, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5266413', 'current_grade': None, 'current_score': 99.44, 'final_grade': None, 'final_score': 89.49, 'unposted_current_score': 99.44, 'unposted_current_grade': None, 'unposted_final_score': 89.49, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2077,16 +2077,16 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2025-07-10T01:54:00Z</t>
+          <t>2025-07-20T17:22:55Z</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>5002</v>
+        <v>5927</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/4845467', 'current_grade': None, 'current_score': 42.47, 'final_grade': None, 'final_score': 33.97, 'unposted_current_score': 42.47, 'unposted_current_grade': None, 'unposted_final_score': 33.97, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/4845467', 'current_grade': None, 'current_score': 53.82, 'final_grade': None, 'final_score': 48.43, 'unposted_current_score': 53.82, 'unposted_current_grade': None, 'unposted_final_score': 48.43, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2174,16 +2174,16 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2025-07-11T19:17:19Z</t>
+          <t>2025-07-18T17:40:52Z</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>11765</v>
+        <v>13071</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/4596715', 'current_grade': None, 'current_score': 80.53, 'final_grade': None, 'final_score': 58.45, 'unposted_current_score': 80.53, 'unposted_current_grade': None, 'unposted_final_score': 58.45, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/4596715', 'current_grade': None, 'current_score': 94.95, 'final_grade': None, 'final_score': 85.45, 'unposted_current_score': 94.95, 'unposted_current_grade': None, 'unposted_final_score': 85.45, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2271,16 +2271,16 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2025-07-10T04:02:54Z</t>
+          <t>2025-07-21T00:31:58Z</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>16087</v>
+        <v>16215</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5285071', 'current_grade': None, 'current_score': 99.42, 'final_grade': None, 'final_score': 79.53, 'unposted_current_score': 99.42, 'unposted_current_grade': None, 'unposted_final_score': 79.53, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5285071', 'current_grade': None, 'current_score': 99.48, 'final_grade': None, 'final_score': 89.53, 'unposted_current_score': 99.48, 'unposted_current_grade': None, 'unposted_final_score': 89.53, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2368,16 +2368,16 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2025-07-11T18:51:04Z</t>
+          <t>2025-07-19T23:17:52Z</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>7712</v>
+        <v>9803</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5314605', 'current_grade': None, 'current_score': 75.57, 'final_grade': None, 'final_score': 57.0, 'unposted_current_score': 75.57, 'unposted_current_grade': None, 'unposted_final_score': 57.0, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5314605', 'current_grade': None, 'current_score': 91.27, 'final_grade': None, 'final_score': 76.94, 'unposted_current_score': 91.27, 'unposted_current_grade': None, 'unposted_final_score': 76.94, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2465,16 +2465,16 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2025-07-10T19:35:56Z</t>
+          <t>2025-07-18T07:12:22Z</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>13766</v>
+        <v>18501</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5341297', 'current_grade': None, 'current_score': 99.94, 'final_grade': None, 'final_score': 72.95, 'unposted_current_score': 99.94, 'unposted_current_grade': None, 'unposted_final_score': 72.95, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5341297', 'current_grade': None, 'current_score': 99.94, 'final_grade': None, 'final_score': 82.95, 'unposted_current_score': 99.94, 'unposted_current_grade': None, 'unposted_final_score': 82.95, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -2562,16 +2562,16 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2025-07-11T03:15:10Z</t>
+          <t>2025-07-18T16:10:06Z</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>23802</v>
+        <v>27150</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5322963', 'current_grade': None, 'current_score': 97.22, 'final_grade': None, 'final_score': 71.1, 'unposted_current_score': 97.22, 'unposted_current_grade': None, 'unposted_final_score': 71.1, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5322963', 'current_grade': None, 'current_score': 98.23, 'final_grade': None, 'final_score': 88.41, 'unposted_current_score': 98.23, 'unposted_current_grade': None, 'unposted_final_score': 88.41, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2659,16 +2659,16 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2025-07-11T00:48:33Z</t>
+          <t>2025-07-21T04:16:25Z</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>14019</v>
+        <v>16257</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5234779', 'current_grade': None, 'current_score': 99.98, 'final_grade': None, 'final_score': 72.98, 'unposted_current_score': 99.98, 'unposted_current_grade': None, 'unposted_final_score': 72.98, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5234779', 'current_grade': None, 'current_score': 99.98, 'final_grade': None, 'final_score': 89.98, 'unposted_current_score': 99.98, 'unposted_current_grade': None, 'unposted_final_score': 89.98, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2756,16 +2756,16 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2025-07-10T04:15:01Z</t>
+          <t>2025-07-16T19:10:03Z</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>14462</v>
+        <v>15700</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5244275', 'current_grade': None, 'current_score': 97.92, 'final_grade': None, 'final_score': 71.52, 'unposted_current_score': 97.92, 'unposted_current_grade': None, 'unposted_final_score': 71.52, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5244275', 'current_grade': None, 'current_score': 98.36, 'final_grade': None, 'final_score': 88.52, 'unposted_current_score': 98.36, 'unposted_current_grade': None, 'unposted_final_score': 88.52, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2853,16 +2853,16 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2025-07-11T15:51:48Z</t>
+          <t>2025-07-19T00:21:36Z</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>10861</v>
+        <v>23516</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5033061', 'current_grade': None, 'current_score': 78.41, 'final_grade': None, 'final_score': 59.2, 'unposted_current_score': 78.41, 'unposted_current_grade': None, 'unposted_final_score': 59.2, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5033061', 'current_grade': None, 'current_score': 76.36, 'final_grade': None, 'final_score': 65.2, 'unposted_current_score': 76.36, 'unposted_current_grade': None, 'unposted_final_score': 65.2, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2025-07-11T01:25:29Z</t>
+          <t>2025-07-21T06:31:06Z</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5287447', 'current_grade': None, 'current_score': 99.07, 'final_grade': None, 'final_score': 79.25, 'unposted_current_score': 99.07, 'unposted_current_grade': None, 'unposted_final_score': 79.25, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5287447', 'current_grade': None, 'current_score': 99.17, 'final_grade': None, 'final_score': 89.25, 'unposted_current_score': 99.17, 'unposted_current_grade': None, 'unposted_final_score': 89.25, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -3047,16 +3047,16 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2025-07-11T15:10:04Z</t>
+          <t>2025-07-19T15:27:28Z</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>9279</v>
+        <v>12698</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5277805', 'current_grade': None, 'current_score': 99.26, 'final_grade': None, 'final_score': 72.45, 'unposted_current_score': 99.26, 'unposted_current_grade': None, 'unposted_final_score': 72.45, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5277805', 'current_grade': None, 'current_score': 99.34, 'final_grade': None, 'final_score': 82.45, 'unposted_current_score': 99.34, 'unposted_current_grade': None, 'unposted_final_score': 82.45, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -3144,16 +3144,16 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2025-07-11T14:01:16Z</t>
+          <t>2025-07-21T01:15:33Z</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>20712</v>
+        <v>21082</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5268281', 'current_grade': None, 'current_score': 92.78, 'final_grade': None, 'final_score': 74.22, 'unposted_current_score': 92.78, 'unposted_current_grade': None, 'unposted_final_score': 74.22, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5268281', 'current_grade': None, 'current_score': 90.25, 'final_grade': None, 'final_score': 81.22, 'unposted_current_score': 90.25, 'unposted_current_grade': None, 'unposted_final_score': 81.22, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5321711', 'current_grade': None, 'current_score': 17.81, 'final_grade': None, 'final_score': 14.25, 'unposted_current_score': 17.81, 'unposted_current_grade': None, 'unposted_final_score': 14.25, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5321711', 'current_grade': None, 'current_score': 19.25, 'final_grade': None, 'final_score': 19.25, 'unposted_current_score': 19.25, 'unposted_current_grade': None, 'unposted_final_score': 19.25, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -3338,16 +3338,16 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2025-07-10T17:27:53Z</t>
+          <t>2025-07-16T22:03:51Z</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>22207</v>
+        <v>23966</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5342207', 'current_grade': None, 'current_score': 97.2, 'final_grade': None, 'final_score': 77.76, 'unposted_current_score': 97.2, 'unposted_current_grade': None, 'unposted_final_score': 77.76, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5342207', 'current_grade': None, 'current_score': 99.57, 'final_grade': None, 'final_score': 89.61, 'unposted_current_score': 99.57, 'unposted_current_grade': None, 'unposted_final_score': 89.61, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -3435,16 +3435,16 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2025-07-11T18:05:44Z</t>
+          <t>2025-07-21T00:41:17Z</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>9826</v>
+        <v>19095</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5255659', 'current_grade': None, 'current_score': 87.95, 'final_grade': None, 'final_score': 70.36, 'unposted_current_score': 87.95, 'unposted_current_grade': None, 'unposted_final_score': 70.36, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5255659', 'current_grade': None, 'current_score': 85.96, 'final_grade': None, 'final_score': 77.36, 'unposted_current_score': 85.96, 'unposted_current_grade': None, 'unposted_final_score': 77.36, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2025-06-28T02:27:01Z</t>
+          <t>2025-07-21T00:12:40Z</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5249109', 'current_grade': None, 'current_score': 63.39, 'final_grade': None, 'final_score': 46.09, 'unposted_current_score': 63.39, 'unposted_current_grade': None, 'unposted_final_score': 46.09, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5249109', 'current_grade': None, 'current_score': 60.1, 'final_grade': None, 'final_score': 55.48, 'unposted_current_score': 60.1, 'unposted_current_grade': None, 'unposted_final_score': 55.48, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -3629,16 +3629,16 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2025-07-10T04:01:02Z</t>
+          <t>2025-07-21T00:30:38Z</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>17307</v>
+        <v>26355</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/4995979', 'current_grade': None, 'current_score': 97.91, 'final_grade': None, 'final_score': 71.37, 'unposted_current_score': 97.91, 'unposted_current_grade': None, 'unposted_final_score': 71.37, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/4995979', 'current_grade': None, 'current_score': 98.19, 'final_grade': None, 'final_score': 88.37, 'unposted_current_score': 98.19, 'unposted_current_grade': None, 'unposted_final_score': 88.37, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -3726,16 +3726,16 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2025-07-07T02:25:47Z</t>
+          <t>2025-07-19T21:25:01Z</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>16441</v>
+        <v>21667</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5260413', 'current_grade': None, 'current_score': 95.04, 'final_grade': None, 'final_score': 70.01, 'unposted_current_score': 95.04, 'unposted_current_grade': None, 'unposted_final_score': 70.01, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5260413', 'current_grade': None, 'current_score': 95.59, 'final_grade': None, 'final_score': 80.01, 'unposted_current_score': 95.59, 'unposted_current_grade': None, 'unposted_final_score': 80.01, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2025-07-10T11:40:17Z</t>
+          <t>2025-07-21T00:47:15Z</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5371577', 'current_grade': None, 'current_score': 99.73, 'final_grade': None, 'final_score': 79.78, 'unposted_current_score': 99.73, 'unposted_current_grade': None, 'unposted_final_score': 79.78, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5371577', 'current_grade': None, 'current_score': 99.76, 'final_grade': None, 'final_score': 89.78, 'unposted_current_score': 99.76, 'unposted_current_grade': None, 'unposted_final_score': 89.78, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -3920,16 +3920,16 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2025-07-11T01:14:26Z</t>
+          <t>2025-07-20T17:42:04Z</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>9379</v>
+        <v>11756</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5305513', 'current_grade': None, 'current_score': 63.33, 'final_grade': None, 'final_score': 48.24, 'unposted_current_score': 63.33, 'unposted_current_grade': None, 'unposted_final_score': 48.24, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5305513', 'current_grade': None, 'current_score': 76.52, 'final_grade': None, 'final_score': 64.74, 'unposted_current_score': 76.52, 'unposted_current_grade': None, 'unposted_final_score': 64.74, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -4017,16 +4017,16 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2025-07-10T20:23:45Z</t>
+          <t>2025-07-20T03:39:32Z</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>16775</v>
+        <v>21609</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5237497', 'current_grade': None, 'current_score': 92.79, 'final_grade': None, 'final_score': 67.91, 'unposted_current_score': 92.79, 'unposted_current_grade': None, 'unposted_final_score': 67.91, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5237497', 'current_grade': None, 'current_score': 91.37, 'final_grade': None, 'final_score': 75.91, 'unposted_current_score': 91.37, 'unposted_current_grade': None, 'unposted_final_score': 75.91, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -4114,16 +4114,16 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2025-07-11T00:15:55Z</t>
+          <t>2025-07-21T03:10:39Z</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>43213</v>
+        <v>50428</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5159167', 'current_grade': None, 'current_score': 69.17, 'final_grade': None, 'final_score': 51.72, 'unposted_current_score': 69.17, 'unposted_current_grade': None, 'unposted_final_score': 51.72, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5159167', 'current_grade': None, 'current_score': 70.59, 'final_grade': None, 'final_score': 59.92, 'unposted_current_score': 70.59, 'unposted_current_grade': None, 'unposted_final_score': 59.92, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -4211,16 +4211,16 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2025-07-11T03:59:43Z</t>
+          <t>2025-07-20T17:21:53Z</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>16667</v>
+        <v>19772</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5075195', 'current_grade': None, 'current_score': 97.21, 'final_grade': None, 'final_score': 70.77, 'unposted_current_score': 97.21, 'unposted_current_grade': None, 'unposted_final_score': 70.77, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5075195', 'current_grade': None, 'current_score': 95.3, 'final_grade': None, 'final_score': 78.77, 'unposted_current_score': 95.3, 'unposted_current_grade': None, 'unposted_final_score': 78.77, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -4308,16 +4308,16 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2025-07-09T17:25:13Z</t>
+          <t>2025-07-16T01:13:54Z</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>29052</v>
+        <v>30112</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5266969', 'current_grade': None, 'current_score': 94.01, 'final_grade': None, 'final_score': 75.21, 'unposted_current_score': 94.01, 'unposted_current_grade': None, 'unposted_final_score': 75.21, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5266969', 'current_grade': None, 'current_score': 94.67, 'final_grade': None, 'final_score': 85.21, 'unposted_current_score': 94.67, 'unposted_current_grade': None, 'unposted_final_score': 85.21, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -4405,16 +4405,16 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2025-07-11T02:36:50Z</t>
+          <t>2025-07-21T00:54:22Z</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>28554</v>
+        <v>29424</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5269555', 'current_grade': None, 'current_score': 99.05, 'final_grade': None, 'final_score': 79.24, 'unposted_current_score': 99.05, 'unposted_current_grade': None, 'unposted_final_score': 79.24, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5269555', 'current_grade': None, 'current_score': 99.15, 'final_grade': None, 'final_score': 89.24, 'unposted_current_score': 99.15, 'unposted_current_grade': None, 'unposted_final_score': 89.24, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -4502,16 +4502,16 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2025-07-11T17:17:03Z</t>
+          <t>2025-07-21T03:17:57Z</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>10476</v>
+        <v>14917</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5368843', 'current_grade': None, 'current_score': 81.48, 'final_grade': None, 'final_score': 60.96, 'unposted_current_score': 81.48, 'unposted_current_grade': None, 'unposted_final_score': 60.96, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5368843', 'current_grade': None, 'current_score': 84.65, 'final_grade': None, 'final_score': 71.96, 'unposted_current_score': 84.65, 'unposted_current_grade': None, 'unposted_final_score': 71.96, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2025-07-11T02:47:46Z</t>
+          <t>2025-07-16T23:09:29Z</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5264859', 'current_grade': None, 'current_score': 73.03, 'final_grade': None, 'final_score': 51.84, 'unposted_current_score': 73.03, 'unposted_current_grade': None, 'unposted_final_score': 51.84, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5264859', 'current_grade': None, 'current_score': 70.81, 'final_grade': None, 'final_score': 64.23, 'unposted_current_score': 70.81, 'unposted_current_grade': None, 'unposted_final_score': 64.23, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -4696,16 +4696,16 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2025-07-11T03:58:55Z</t>
+          <t>2025-07-21T05:23:59Z</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>11394</v>
+        <v>16019</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5081859', 'current_grade': None, 'current_score': 90.18, 'final_grade': None, 'final_score': 65.68, 'unposted_current_score': 90.18, 'unposted_current_grade': None, 'unposted_final_score': 65.68, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5081859', 'current_grade': None, 'current_score': 90.16, 'final_grade': None, 'final_score': 74.68, 'unposted_current_score': 90.16, 'unposted_current_grade': None, 'unposted_final_score': 74.68, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -4793,16 +4793,16 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2025-07-11T14:58:11Z</t>
+          <t>2025-07-18T17:24:12Z</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>3787</v>
+        <v>4894</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5291005', 'current_grade': None, 'current_score': 64.8, 'final_grade': None, 'final_score': 51.84, 'unposted_current_score': 64.8, 'unposted_current_grade': None, 'unposted_final_score': 51.84, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5291005', 'current_grade': None, 'current_score': 64.84, 'final_grade': None, 'final_score': 64.84, 'unposted_current_score': 64.84, 'unposted_current_grade': None, 'unposted_final_score': 64.84, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -4890,16 +4890,16 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2025-07-11T17:24:45Z</t>
+          <t>2025-07-21T13:22:48Z</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>31668</v>
+        <v>40917</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5245161', 'current_grade': None, 'current_score': 92.56, 'final_grade': None, 'final_score': 68.1, 'unposted_current_score': 92.56, 'unposted_current_grade': None, 'unposted_final_score': 68.1, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5245161', 'current_grade': None, 'current_score': 94.56, 'final_grade': None, 'final_score': 85.1, 'unposted_current_score': 94.56, 'unposted_current_grade': None, 'unposted_final_score': 85.1, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -4987,16 +4987,16 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2025-07-10T17:37:55Z</t>
+          <t>2025-07-19T06:38:16Z</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>11785</v>
+        <v>12504</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5264631', 'current_grade': None, 'current_score': 72.13, 'final_grade': None, 'final_score': 51.55, 'unposted_current_score': 72.13, 'unposted_current_grade': None, 'unposted_final_score': 51.55, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5264631', 'current_grade': None, 'current_score': 75.76, 'final_grade': None, 'final_score': 63.17, 'unposted_current_score': 75.76, 'unposted_current_grade': None, 'unposted_final_score': 63.17, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -5084,16 +5084,16 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2025-07-10T20:06:52Z</t>
+          <t>2025-07-18T16:34:01Z</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>14320</v>
+        <v>20599</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/4803449', 'current_grade': None, 'current_score': 86.78, 'final_grade': None, 'final_score': 63.85, 'unposted_current_score': 86.78, 'unposted_current_grade': None, 'unposted_final_score': 63.85, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/4803449', 'current_grade': None, 'current_score': 86.03, 'final_grade': None, 'final_score': 71.85, 'unposted_current_score': 86.03, 'unposted_current_grade': None, 'unposted_final_score': 71.85, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -5181,16 +5181,16 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2025-07-11T07:45:06Z</t>
+          <t>2025-07-21T00:55:06Z</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>18735</v>
+        <v>25899</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5052305', 'current_grade': None, 'current_score': 84.24, 'final_grade': None, 'final_score': 62.5, 'unposted_current_score': 84.24, 'unposted_current_grade': None, 'unposted_final_score': 62.5, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5052305', 'current_grade': None, 'current_score': 86.29, 'final_grade': None, 'final_score': 72.76, 'unposted_current_score': 86.29, 'unposted_current_grade': None, 'unposted_final_score': 72.76, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -5278,16 +5278,16 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2025-07-11T17:16:21Z</t>
+          <t>2025-07-16T18:32:28Z</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
-        <v>26445</v>
+        <v>31290</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5259461', 'current_grade': None, 'current_score': 96.68, 'final_grade': None, 'final_score': 77.34, 'unposted_current_score': 96.68, 'unposted_current_grade': None, 'unposted_final_score': 77.34, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5259461', 'current_grade': None, 'current_score': 97.04, 'final_grade': None, 'final_score': 87.34, 'unposted_current_score': 97.04, 'unposted_current_grade': None, 'unposted_final_score': 87.34, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5371709', 'current_grade': None, 'current_score': 4.06, 'final_grade': None, 'final_score': 3.25, 'unposted_current_score': 4.06, 'unposted_current_grade': None, 'unposted_final_score': 3.25, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5371709', 'current_grade': None, 'current_score': 3.25, 'final_grade': None, 'final_score': 3.25, 'unposted_current_score': 3.25, 'unposted_current_grade': None, 'unposted_final_score': 3.25, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -5472,16 +5472,16 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2025-07-11T03:02:08Z</t>
+          <t>2025-07-20T02:50:42Z</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>28859</v>
+        <v>32179</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5333367', 'current_grade': None, 'current_score': 90.78, 'final_grade': None, 'final_score': 66.26, 'unposted_current_score': 90.78, 'unposted_current_grade': None, 'unposted_final_score': 66.26, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5333367', 'current_grade': None, 'current_score': 92.65, 'final_grade': None, 'final_score': 77.02, 'unposted_current_score': 92.65, 'unposted_current_grade': None, 'unposted_final_score': 77.02, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2025-07-11T02:39:05Z</t>
+          <t>2025-07-18T14:52:56Z</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5400867', 'current_grade': None, 'current_score': 93.48, 'final_grade': None, 'final_score': 68.67, 'unposted_current_score': 93.48, 'unposted_current_grade': None, 'unposted_final_score': 68.67, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5400867', 'current_grade': None, 'current_score': 83.78, 'final_grade': None, 'final_score': 83.78, 'unposted_current_score': 83.78, 'unposted_current_grade': None, 'unposted_final_score': 83.78, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2025-07-11T15:36:23Z</t>
+          <t>2025-07-18T16:13:28Z</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
-        <v>12921</v>
+        <v>14989</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5263813', 'current_grade': None, 'current_score': 90.1, 'final_grade': None, 'final_score': 65.94, 'unposted_current_score': 90.1, 'unposted_current_grade': None, 'unposted_final_score': 65.94, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5263813', 'current_grade': None, 'current_score': 88.28, 'final_grade': None, 'final_score': 79.45, 'unposted_current_score': 88.28, 'unposted_current_grade': None, 'unposted_final_score': 79.45, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -5763,16 +5763,16 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2025-07-11T15:24:03Z</t>
+          <t>2025-07-20T12:43:59Z</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>13050</v>
+        <v>13521</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5328305', 'current_grade': None, 'current_score': 98.3, 'final_grade': None, 'final_score': 71.9, 'unposted_current_score': 98.3, 'unposted_current_grade': None, 'unposted_final_score': 71.9, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5328305', 'current_grade': None, 'current_score': 98.77, 'final_grade': None, 'final_score': 88.9, 'unposted_current_score': 98.77, 'unposted_current_grade': None, 'unposted_final_score': 88.9, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -5860,16 +5860,16 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2025-07-11T05:50:41Z</t>
+          <t>2025-07-21T02:16:21Z</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>23945</v>
+        <v>28352</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5258093', 'current_grade': None, 'current_score': 97.75, 'final_grade': None, 'final_score': 71.43, 'unposted_current_score': 97.75, 'unposted_current_grade': None, 'unposted_final_score': 71.43, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5258093', 'current_grade': None, 'current_score': 97.71, 'final_grade': None, 'final_score': 87.94, 'unposted_current_score': 97.71, 'unposted_current_grade': None, 'unposted_final_score': 87.94, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -5957,16 +5957,16 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2025-07-11T11:50:58Z</t>
+          <t>2025-07-21T10:55:38Z</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
-        <v>56698</v>
+        <v>76345</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5242323', 'current_grade': None, 'current_score': 82.24, 'final_grade': None, 'final_score': 65.79, 'unposted_current_score': 82.24, 'unposted_current_grade': None, 'unposted_final_score': 65.79, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5242323', 'current_grade': None, 'current_score': 76.79, 'final_grade': None, 'final_score': 76.79, 'unposted_current_score': 76.79, 'unposted_current_grade': None, 'unposted_final_score': 76.79, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
@@ -6054,16 +6054,16 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2025-07-10T20:37:32Z</t>
+          <t>2025-07-21T14:12:37Z</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>19634</v>
+        <v>22294</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5042553', 'current_grade': None, 'current_score': 96.55, 'final_grade': None, 'final_score': 70.29, 'unposted_current_score': 96.55, 'unposted_current_grade': None, 'unposted_final_score': 70.29, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5042553', 'current_grade': None, 'current_score': 94.71, 'final_grade': None, 'final_score': 78.29, 'unposted_current_score': 94.71, 'unposted_current_grade': None, 'unposted_final_score': 78.29, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2025-07-09T20:47:13Z</t>
+          <t>2025-07-15T21:05:08Z</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5385177', 'current_grade': None, 'current_score': 38.14, 'final_grade': None, 'final_score': 29.39, 'unposted_current_score': 38.14, 'unposted_current_grade': None, 'unposted_final_score': 29.39, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5385177', 'current_grade': None, 'current_score': 40.51, 'final_grade': None, 'final_score': 39.39, 'unposted_current_score': 40.51, 'unposted_current_grade': None, 'unposted_final_score': 39.39, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -6248,16 +6248,16 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2025-07-11T02:12:15Z</t>
+          <t>2025-07-19T13:20:18Z</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>11659</v>
+        <v>27579</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5343251', 'current_grade': None, 'current_score': 93.0, 'final_grade': None, 'final_score': 68.41, 'unposted_current_score': 93.0, 'unposted_current_grade': None, 'unposted_final_score': 68.41, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5343251', 'current_grade': None, 'current_score': 89.34, 'final_grade': None, 'final_score': 74.41, 'unposted_current_score': 89.34, 'unposted_current_grade': None, 'unposted_final_score': 74.41, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
@@ -6345,16 +6345,16 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2025-07-10T17:45:51Z</t>
+          <t>2025-07-18T17:35:46Z</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
-        <v>7710</v>
+        <v>8052</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5277021', 'current_grade': None, 'current_score': 97.47, 'final_grade': None, 'final_score': 77.97, 'unposted_current_score': 97.47, 'unposted_current_grade': None, 'unposted_final_score': 77.97, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5277021', 'current_grade': None, 'current_score': 87.97, 'final_grade': None, 'final_score': 87.97, 'unposted_current_score': 87.97, 'unposted_current_grade': None, 'unposted_final_score': 87.97, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -6442,16 +6442,16 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2025-07-11T18:42:10Z</t>
+          <t>2025-07-20T23:18:32Z</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>13381</v>
+        <v>15565</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5418569', 'current_grade': None, 'current_score': 93.35, 'final_grade': None, 'final_score': 68.89, 'unposted_current_score': 93.35, 'unposted_current_grade': None, 'unposted_final_score': 68.89, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5418569', 'current_grade': None, 'current_score': 94.09, 'final_grade': None, 'final_score': 78.89, 'unposted_current_score': 94.09, 'unposted_current_grade': None, 'unposted_final_score': 78.89, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -6539,16 +6539,16 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2025-07-10T13:20:11Z</t>
+          <t>2025-07-21T12:37:24Z</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>26505</v>
+        <v>26642</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5237007', 'current_grade': None, 'current_score': 97.24, 'final_grade': None, 'final_score': 77.79, 'unposted_current_score': 97.24, 'unposted_current_grade': None, 'unposted_final_score': 77.79, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5237007', 'current_grade': None, 'current_score': 97.55, 'final_grade': None, 'final_score': 87.79, 'unposted_current_score': 97.55, 'unposted_current_grade': None, 'unposted_final_score': 87.79, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2025-07-10T18:04:09Z</t>
+          <t>2025-07-21T00:30:14Z</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr"/>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5332285', 'current_grade': None, 'current_score': 97.7, 'final_grade': None, 'final_score': 71.21, 'unposted_current_score': 97.7, 'unposted_current_grade': None, 'unposted_final_score': 71.21, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5332285', 'current_grade': None, 'current_score': 98.01, 'final_grade': None, 'final_score': 88.21, 'unposted_current_score': 98.01, 'unposted_current_grade': None, 'unposted_final_score': 88.21, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -6733,16 +6733,16 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2025-07-10T22:51:55Z</t>
+          <t>2025-07-16T23:58:35Z</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>17940</v>
+        <v>21727</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5230621', 'current_grade': None, 'current_score': 99.23, 'final_grade': None, 'final_score': 79.38, 'unposted_current_score': 99.23, 'unposted_current_grade': None, 'unposted_final_score': 79.38, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5230621', 'current_grade': None, 'current_score': 99.31, 'final_grade': None, 'final_score': 89.38, 'unposted_current_score': 99.31, 'unposted_current_grade': None, 'unposted_final_score': 89.38, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
@@ -6830,16 +6830,16 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2025-06-18T01:02:33Z</t>
+          <t>2025-07-21T00:27:54Z</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="n">
-        <v>980</v>
+        <v>1141</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5537663', 'current_grade': None, 'current_score': 20.0, 'final_grade': None, 'final_score': 5.0, 'unposted_current_score': 20.0, 'unposted_current_grade': None, 'unposted_final_score': 5.0, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5537663', 'current_grade': None, 'current_score': 42.86, 'final_grade': None, 'final_score': 15.0, 'unposted_current_score': 42.86, 'unposted_current_grade': None, 'unposted_final_score': 15.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>2025-07-11T14:44:50Z</t>
+          <t>2025-07-11T20:25:58Z</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr"/>
@@ -7016,12 +7016,12 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2025-07-09T01:33:59Z</t>
+          <t>2025-07-19T18:46:47Z</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="n">
-        <v>6584</v>
+        <v>7734</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
@@ -7109,12 +7109,12 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2025-07-11T19:20:42Z</t>
+          <t>2025-07-21T15:10:21Z</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="n">
-        <v>1269</v>
+        <v>2203</v>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr">
@@ -7202,12 +7202,12 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>2025-07-08T21:54:09Z</t>
+          <t>2025-07-20T21:56:59Z</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="n">
-        <v>42724</v>
+        <v>43258</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr">
@@ -7388,12 +7388,12 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>2025-07-11T14:14:46Z</t>
+          <t>2025-07-21T00:28:01Z</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
-        <v>106141</v>
+        <v>117150</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr">
